--- a/Results/20250819__Coffee__DR_Cibao_Noroeste/20250819__Coffee__DR_Cibao_Noroeste_adjusted_canopy_crop_composition.xlsx
+++ b/Results/20250819__Coffee__DR_Cibao_Noroeste/20250819__Coffee__DR_Cibao_Noroeste_adjusted_canopy_crop_composition.xlsx
@@ -23,14 +23,13 @@
     <sheet name="shade_+30" sheetId="14" r:id="rId14"/>
     <sheet name="shade_+50" sheetId="15" r:id="rId15"/>
     <sheet name="coffee_to_cacao" sheetId="16" r:id="rId16"/>
-    <sheet name="cacao_to_coffee" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11892" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11181" uniqueCount="53">
   <si>
     <t>Plot ID</t>
   </si>
@@ -189,9 +188,6 @@
   </si>
   <si>
     <t>DR</t>
-  </si>
-  <si>
-    <t>Cacao</t>
   </si>
 </sst>
 </file>
@@ -26513,3554 +26509,6 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K101"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2">
-        <v>19.13955348653357</v>
-      </c>
-      <c r="C2">
-        <v>-71.07951202852642</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2">
-        <v>46</v>
-      </c>
-      <c r="J2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3">
-        <v>19.13955348653357</v>
-      </c>
-      <c r="C3">
-        <v>-71.07951202852642</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4">
-        <v>19.13955348653357</v>
-      </c>
-      <c r="C4">
-        <v>-71.07951202852642</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5">
-        <v>19.13955348653357</v>
-      </c>
-      <c r="C5">
-        <v>-71.07951202852642</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5">
-        <v>46</v>
-      </c>
-      <c r="J5" t="s">
-        <v>52</v>
-      </c>
-      <c r="K5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>19.13955348653357</v>
-      </c>
-      <c r="C6">
-        <v>-71.07951202852642</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6">
-        <v>1000</v>
-      </c>
-      <c r="J6" t="s">
-        <v>52</v>
-      </c>
-      <c r="K6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7">
-        <v>19.13955348653357</v>
-      </c>
-      <c r="C7">
-        <v>-71.07951202852642</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8">
-        <v>19.13955348653357</v>
-      </c>
-      <c r="C8">
-        <v>-71.07951202852642</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8">
-        <v>11</v>
-      </c>
-      <c r="J8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9">
-        <v>19.13955348653357</v>
-      </c>
-      <c r="C9">
-        <v>-71.07951202852642</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9" t="s">
-        <v>52</v>
-      </c>
-      <c r="K9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10">
-        <v>19.13955348653357</v>
-      </c>
-      <c r="C10">
-        <v>-71.07951202852642</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10">
-        <v>6</v>
-      </c>
-      <c r="J10" t="s">
-        <v>52</v>
-      </c>
-      <c r="K10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11">
-        <v>19.13955348653357</v>
-      </c>
-      <c r="C11">
-        <v>-71.07951202852642</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11">
-        <v>35</v>
-      </c>
-      <c r="J11" t="s">
-        <v>52</v>
-      </c>
-      <c r="K11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12">
-        <v>19.16503470419933</v>
-      </c>
-      <c r="C12">
-        <v>-71.34044973214905</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12">
-        <v>38</v>
-      </c>
-      <c r="J12" t="s">
-        <v>52</v>
-      </c>
-      <c r="K12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>19.16503470419933</v>
-      </c>
-      <c r="C13">
-        <v>-71.34044973214905</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13" t="s">
-        <v>52</v>
-      </c>
-      <c r="K13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14">
-        <v>19.16503470419933</v>
-      </c>
-      <c r="C14">
-        <v>-71.34044973214905</v>
-      </c>
-      <c r="D14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14">
-        <v>26</v>
-      </c>
-      <c r="J14" t="s">
-        <v>52</v>
-      </c>
-      <c r="K14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15">
-        <v>19.16503470419933</v>
-      </c>
-      <c r="C15">
-        <v>-71.34044973214905</v>
-      </c>
-      <c r="D15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15">
-        <v>20</v>
-      </c>
-      <c r="J15" t="s">
-        <v>52</v>
-      </c>
-      <c r="K15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16">
-        <v>19.16503470419933</v>
-      </c>
-      <c r="C16">
-        <v>-71.34044973214905</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" t="s">
-        <v>43</v>
-      </c>
-      <c r="I16">
-        <v>1000</v>
-      </c>
-      <c r="J16" t="s">
-        <v>52</v>
-      </c>
-      <c r="K16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17">
-        <v>19.16503470419933</v>
-      </c>
-      <c r="C17">
-        <v>-71.34044973214905</v>
-      </c>
-      <c r="D17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" t="s">
-        <v>44</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17" t="s">
-        <v>52</v>
-      </c>
-      <c r="K17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18">
-        <v>19.16503470419933</v>
-      </c>
-      <c r="C18">
-        <v>-71.34044973214905</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H18" t="s">
-        <v>45</v>
-      </c>
-      <c r="I18">
-        <v>21</v>
-      </c>
-      <c r="J18" t="s">
-        <v>52</v>
-      </c>
-      <c r="K18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>19.16503470419933</v>
-      </c>
-      <c r="C19">
-        <v>-71.34044973214905</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" t="s">
-        <v>46</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19" t="s">
-        <v>52</v>
-      </c>
-      <c r="K19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>19.16503470419933</v>
-      </c>
-      <c r="C20">
-        <v>-71.34044973214905</v>
-      </c>
-      <c r="D20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="s">
-        <v>37</v>
-      </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20">
-        <v>30</v>
-      </c>
-      <c r="J20" t="s">
-        <v>52</v>
-      </c>
-      <c r="K20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21">
-        <v>19.16503470419933</v>
-      </c>
-      <c r="C21">
-        <v>-71.34044973214905</v>
-      </c>
-      <c r="D21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" t="s">
-        <v>48</v>
-      </c>
-      <c r="I21">
-        <v>8</v>
-      </c>
-      <c r="J21" t="s">
-        <v>52</v>
-      </c>
-      <c r="K21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22">
-        <v>19.16914418206938</v>
-      </c>
-      <c r="C22">
-        <v>-71.02763156966708</v>
-      </c>
-      <c r="D22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" t="s">
-        <v>53</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22">
-        <v>52</v>
-      </c>
-      <c r="J22" t="s">
-        <v>52</v>
-      </c>
-      <c r="K22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23">
-        <v>19.16914418206938</v>
-      </c>
-      <c r="C23">
-        <v>-71.02763156966708</v>
-      </c>
-      <c r="D23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" t="s">
-        <v>53</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="s">
-        <v>30</v>
-      </c>
-      <c r="H23" t="s">
-        <v>40</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23" t="s">
-        <v>52</v>
-      </c>
-      <c r="K23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24">
-        <v>19.16914418206938</v>
-      </c>
-      <c r="C24">
-        <v>-71.02763156966708</v>
-      </c>
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" t="s">
-        <v>53</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="s">
-        <v>31</v>
-      </c>
-      <c r="H24" t="s">
-        <v>41</v>
-      </c>
-      <c r="I24">
-        <v>9</v>
-      </c>
-      <c r="J24" t="s">
-        <v>52</v>
-      </c>
-      <c r="K24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25">
-        <v>19.16914418206938</v>
-      </c>
-      <c r="C25">
-        <v>-71.02763156966708</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" t="s">
-        <v>53</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="s">
-        <v>32</v>
-      </c>
-      <c r="H25" t="s">
-        <v>42</v>
-      </c>
-      <c r="I25">
-        <v>7</v>
-      </c>
-      <c r="J25" t="s">
-        <v>52</v>
-      </c>
-      <c r="K25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26">
-        <v>19.16914418206938</v>
-      </c>
-      <c r="C26">
-        <v>-71.02763156966708</v>
-      </c>
-      <c r="D26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" t="s">
-        <v>53</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="s">
-        <v>33</v>
-      </c>
-      <c r="H26" t="s">
-        <v>43</v>
-      </c>
-      <c r="I26">
-        <v>1000</v>
-      </c>
-      <c r="J26" t="s">
-        <v>52</v>
-      </c>
-      <c r="K26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27">
-        <v>19.16914418206938</v>
-      </c>
-      <c r="C27">
-        <v>-71.02763156966708</v>
-      </c>
-      <c r="D27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="s">
-        <v>34</v>
-      </c>
-      <c r="H27" t="s">
-        <v>44</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27" t="s">
-        <v>52</v>
-      </c>
-      <c r="K27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28">
-        <v>19.16914418206938</v>
-      </c>
-      <c r="C28">
-        <v>-71.02763156966708</v>
-      </c>
-      <c r="D28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" t="s">
-        <v>53</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="s">
-        <v>35</v>
-      </c>
-      <c r="H28" t="s">
-        <v>45</v>
-      </c>
-      <c r="I28">
-        <v>6</v>
-      </c>
-      <c r="J28" t="s">
-        <v>52</v>
-      </c>
-      <c r="K28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29">
-        <v>19.16914418206938</v>
-      </c>
-      <c r="C29">
-        <v>-71.02763156966708</v>
-      </c>
-      <c r="D29" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" t="s">
-        <v>53</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="s">
-        <v>36</v>
-      </c>
-      <c r="H29" t="s">
-        <v>46</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29" t="s">
-        <v>52</v>
-      </c>
-      <c r="K29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30">
-        <v>19.16914418206938</v>
-      </c>
-      <c r="C30">
-        <v>-71.02763156966708</v>
-      </c>
-      <c r="D30" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" t="s">
-        <v>53</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="s">
-        <v>37</v>
-      </c>
-      <c r="H30" t="s">
-        <v>47</v>
-      </c>
-      <c r="I30">
-        <v>12</v>
-      </c>
-      <c r="J30" t="s">
-        <v>52</v>
-      </c>
-      <c r="K30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31">
-        <v>19.16914418206938</v>
-      </c>
-      <c r="C31">
-        <v>-71.02763156966708</v>
-      </c>
-      <c r="D31" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31" t="s">
-        <v>53</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="s">
-        <v>38</v>
-      </c>
-      <c r="H31" t="s">
-        <v>48</v>
-      </c>
-      <c r="I31">
-        <v>58</v>
-      </c>
-      <c r="J31" t="s">
-        <v>52</v>
-      </c>
-      <c r="K31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32">
-        <v>19.18419608946703</v>
-      </c>
-      <c r="C32">
-        <v>-70.96241994230091</v>
-      </c>
-      <c r="D32" t="s">
-        <v>27</v>
-      </c>
-      <c r="E32" t="s">
-        <v>53</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="s">
-        <v>29</v>
-      </c>
-      <c r="H32" t="s">
-        <v>39</v>
-      </c>
-      <c r="I32">
-        <v>7</v>
-      </c>
-      <c r="J32" t="s">
-        <v>52</v>
-      </c>
-      <c r="K32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33">
-        <v>19.18419608946703</v>
-      </c>
-      <c r="C33">
-        <v>-70.96241994230091</v>
-      </c>
-      <c r="D33" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33" t="s">
-        <v>53</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="s">
-        <v>30</v>
-      </c>
-      <c r="H33" t="s">
-        <v>40</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33" t="s">
-        <v>52</v>
-      </c>
-      <c r="K33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34">
-        <v>19.18419608946703</v>
-      </c>
-      <c r="C34">
-        <v>-70.96241994230091</v>
-      </c>
-      <c r="D34" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" t="s">
-        <v>53</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34" t="s">
-        <v>31</v>
-      </c>
-      <c r="H34" t="s">
-        <v>41</v>
-      </c>
-      <c r="I34">
-        <v>62</v>
-      </c>
-      <c r="J34" t="s">
-        <v>52</v>
-      </c>
-      <c r="K34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" t="s">
-        <v>20</v>
-      </c>
-      <c r="B35">
-        <v>19.18419608946703</v>
-      </c>
-      <c r="C35">
-        <v>-70.96241994230091</v>
-      </c>
-      <c r="D35" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" t="s">
-        <v>53</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" t="s">
-        <v>32</v>
-      </c>
-      <c r="H35" t="s">
-        <v>42</v>
-      </c>
-      <c r="I35">
-        <v>18</v>
-      </c>
-      <c r="J35" t="s">
-        <v>52</v>
-      </c>
-      <c r="K35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" t="s">
-        <v>20</v>
-      </c>
-      <c r="B36">
-        <v>19.18419608946703</v>
-      </c>
-      <c r="C36">
-        <v>-70.96241994230091</v>
-      </c>
-      <c r="D36" t="s">
-        <v>27</v>
-      </c>
-      <c r="E36" t="s">
-        <v>53</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36" t="s">
-        <v>33</v>
-      </c>
-      <c r="H36" t="s">
-        <v>43</v>
-      </c>
-      <c r="I36">
-        <v>1000</v>
-      </c>
-      <c r="J36" t="s">
-        <v>52</v>
-      </c>
-      <c r="K36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" t="s">
-        <v>20</v>
-      </c>
-      <c r="B37">
-        <v>19.18419608946703</v>
-      </c>
-      <c r="C37">
-        <v>-70.96241994230091</v>
-      </c>
-      <c r="D37" t="s">
-        <v>27</v>
-      </c>
-      <c r="E37" t="s">
-        <v>53</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37" t="s">
-        <v>34</v>
-      </c>
-      <c r="H37" t="s">
-        <v>44</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37" t="s">
-        <v>52</v>
-      </c>
-      <c r="K37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" t="s">
-        <v>20</v>
-      </c>
-      <c r="B38">
-        <v>19.18419608946703</v>
-      </c>
-      <c r="C38">
-        <v>-70.96241994230091</v>
-      </c>
-      <c r="D38" t="s">
-        <v>27</v>
-      </c>
-      <c r="E38" t="s">
-        <v>53</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38" t="s">
-        <v>35</v>
-      </c>
-      <c r="H38" t="s">
-        <v>45</v>
-      </c>
-      <c r="I38">
-        <v>8</v>
-      </c>
-      <c r="J38" t="s">
-        <v>52</v>
-      </c>
-      <c r="K38" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" t="s">
-        <v>20</v>
-      </c>
-      <c r="B39">
-        <v>19.18419608946703</v>
-      </c>
-      <c r="C39">
-        <v>-70.96241994230091</v>
-      </c>
-      <c r="D39" t="s">
-        <v>27</v>
-      </c>
-      <c r="E39" t="s">
-        <v>53</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39" t="s">
-        <v>36</v>
-      </c>
-      <c r="H39" t="s">
-        <v>46</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39" t="s">
-        <v>52</v>
-      </c>
-      <c r="K39" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B40">
-        <v>19.18419608946703</v>
-      </c>
-      <c r="C40">
-        <v>-70.96241994230091</v>
-      </c>
-      <c r="D40" t="s">
-        <v>27</v>
-      </c>
-      <c r="E40" t="s">
-        <v>53</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40" t="s">
-        <v>37</v>
-      </c>
-      <c r="H40" t="s">
-        <v>47</v>
-      </c>
-      <c r="I40">
-        <v>11</v>
-      </c>
-      <c r="J40" t="s">
-        <v>52</v>
-      </c>
-      <c r="K40" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" t="s">
-        <v>20</v>
-      </c>
-      <c r="B41">
-        <v>19.18419608946703</v>
-      </c>
-      <c r="C41">
-        <v>-70.96241994230091</v>
-      </c>
-      <c r="D41" t="s">
-        <v>27</v>
-      </c>
-      <c r="E41" t="s">
-        <v>53</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41" t="s">
-        <v>38</v>
-      </c>
-      <c r="H41" t="s">
-        <v>48</v>
-      </c>
-      <c r="I41">
-        <v>37</v>
-      </c>
-      <c r="J41" t="s">
-        <v>52</v>
-      </c>
-      <c r="K41" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" t="s">
-        <v>21</v>
-      </c>
-      <c r="B42">
-        <v>19.21469531385434</v>
-      </c>
-      <c r="C42">
-        <v>-70.97296721084524</v>
-      </c>
-      <c r="D42" t="s">
-        <v>27</v>
-      </c>
-      <c r="E42" t="s">
-        <v>53</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42" t="s">
-        <v>29</v>
-      </c>
-      <c r="H42" t="s">
-        <v>39</v>
-      </c>
-      <c r="I42">
-        <v>3</v>
-      </c>
-      <c r="J42" t="s">
-        <v>52</v>
-      </c>
-      <c r="K42" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" t="s">
-        <v>21</v>
-      </c>
-      <c r="B43">
-        <v>19.21469531385434</v>
-      </c>
-      <c r="C43">
-        <v>-70.97296721084524</v>
-      </c>
-      <c r="D43" t="s">
-        <v>27</v>
-      </c>
-      <c r="E43" t="s">
-        <v>53</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43" t="s">
-        <v>30</v>
-      </c>
-      <c r="H43" t="s">
-        <v>40</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43" t="s">
-        <v>52</v>
-      </c>
-      <c r="K43" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" t="s">
-        <v>21</v>
-      </c>
-      <c r="B44">
-        <v>19.21469531385434</v>
-      </c>
-      <c r="C44">
-        <v>-70.97296721084524</v>
-      </c>
-      <c r="D44" t="s">
-        <v>27</v>
-      </c>
-      <c r="E44" t="s">
-        <v>53</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44" t="s">
-        <v>31</v>
-      </c>
-      <c r="H44" t="s">
-        <v>41</v>
-      </c>
-      <c r="I44">
-        <v>17</v>
-      </c>
-      <c r="J44" t="s">
-        <v>52</v>
-      </c>
-      <c r="K44" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" t="s">
-        <v>21</v>
-      </c>
-      <c r="B45">
-        <v>19.21469531385434</v>
-      </c>
-      <c r="C45">
-        <v>-70.97296721084524</v>
-      </c>
-      <c r="D45" t="s">
-        <v>27</v>
-      </c>
-      <c r="E45" t="s">
-        <v>53</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45" t="s">
-        <v>32</v>
-      </c>
-      <c r="H45" t="s">
-        <v>42</v>
-      </c>
-      <c r="I45">
-        <v>32</v>
-      </c>
-      <c r="J45" t="s">
-        <v>52</v>
-      </c>
-      <c r="K45" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" t="s">
-        <v>21</v>
-      </c>
-      <c r="B46">
-        <v>19.21469531385434</v>
-      </c>
-      <c r="C46">
-        <v>-70.97296721084524</v>
-      </c>
-      <c r="D46" t="s">
-        <v>27</v>
-      </c>
-      <c r="E46" t="s">
-        <v>53</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46" t="s">
-        <v>33</v>
-      </c>
-      <c r="H46" t="s">
-        <v>43</v>
-      </c>
-      <c r="I46">
-        <v>1000</v>
-      </c>
-      <c r="J46" t="s">
-        <v>52</v>
-      </c>
-      <c r="K46" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" t="s">
-        <v>21</v>
-      </c>
-      <c r="B47">
-        <v>19.21469531385434</v>
-      </c>
-      <c r="C47">
-        <v>-70.97296721084524</v>
-      </c>
-      <c r="D47" t="s">
-        <v>27</v>
-      </c>
-      <c r="E47" t="s">
-        <v>53</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47" t="s">
-        <v>34</v>
-      </c>
-      <c r="H47" t="s">
-        <v>44</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47" t="s">
-        <v>52</v>
-      </c>
-      <c r="K47" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" t="s">
-        <v>21</v>
-      </c>
-      <c r="B48">
-        <v>19.21469531385434</v>
-      </c>
-      <c r="C48">
-        <v>-70.97296721084524</v>
-      </c>
-      <c r="D48" t="s">
-        <v>27</v>
-      </c>
-      <c r="E48" t="s">
-        <v>53</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48" t="s">
-        <v>35</v>
-      </c>
-      <c r="H48" t="s">
-        <v>45</v>
-      </c>
-      <c r="I48">
-        <v>4</v>
-      </c>
-      <c r="J48" t="s">
-        <v>52</v>
-      </c>
-      <c r="K48" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49" t="s">
-        <v>21</v>
-      </c>
-      <c r="B49">
-        <v>19.21469531385434</v>
-      </c>
-      <c r="C49">
-        <v>-70.97296721084524</v>
-      </c>
-      <c r="D49" t="s">
-        <v>27</v>
-      </c>
-      <c r="E49" t="s">
-        <v>53</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49" t="s">
-        <v>36</v>
-      </c>
-      <c r="H49" t="s">
-        <v>46</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49" t="s">
-        <v>52</v>
-      </c>
-      <c r="K49" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50" t="s">
-        <v>21</v>
-      </c>
-      <c r="B50">
-        <v>19.21469531385434</v>
-      </c>
-      <c r="C50">
-        <v>-70.97296721084524</v>
-      </c>
-      <c r="D50" t="s">
-        <v>27</v>
-      </c>
-      <c r="E50" t="s">
-        <v>53</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50" t="s">
-        <v>37</v>
-      </c>
-      <c r="H50" t="s">
-        <v>47</v>
-      </c>
-      <c r="I50">
-        <v>5</v>
-      </c>
-      <c r="J50" t="s">
-        <v>52</v>
-      </c>
-      <c r="K50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51" t="s">
-        <v>21</v>
-      </c>
-      <c r="B51">
-        <v>19.21469531385434</v>
-      </c>
-      <c r="C51">
-        <v>-70.97296721084524</v>
-      </c>
-      <c r="D51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E51" t="s">
-        <v>53</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="G51" t="s">
-        <v>38</v>
-      </c>
-      <c r="H51" t="s">
-        <v>48</v>
-      </c>
-      <c r="I51">
-        <v>83</v>
-      </c>
-      <c r="J51" t="s">
-        <v>52</v>
-      </c>
-      <c r="K51" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52" t="s">
-        <v>22</v>
-      </c>
-      <c r="B52">
-        <v>19.24315730942009</v>
-      </c>
-      <c r="C52">
-        <v>-71.12629476936569</v>
-      </c>
-      <c r="D52" t="s">
-        <v>27</v>
-      </c>
-      <c r="E52" t="s">
-        <v>53</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52" t="s">
-        <v>29</v>
-      </c>
-      <c r="H52" t="s">
-        <v>39</v>
-      </c>
-      <c r="I52">
-        <v>55</v>
-      </c>
-      <c r="J52" t="s">
-        <v>52</v>
-      </c>
-      <c r="K52" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53" t="s">
-        <v>22</v>
-      </c>
-      <c r="B53">
-        <v>19.24315730942009</v>
-      </c>
-      <c r="C53">
-        <v>-71.12629476936569</v>
-      </c>
-      <c r="D53" t="s">
-        <v>27</v>
-      </c>
-      <c r="E53" t="s">
-        <v>53</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-      <c r="G53" t="s">
-        <v>30</v>
-      </c>
-      <c r="H53" t="s">
-        <v>40</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53" t="s">
-        <v>52</v>
-      </c>
-      <c r="K53" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" t="s">
-        <v>22</v>
-      </c>
-      <c r="B54">
-        <v>19.24315730942009</v>
-      </c>
-      <c r="C54">
-        <v>-71.12629476936569</v>
-      </c>
-      <c r="D54" t="s">
-        <v>27</v>
-      </c>
-      <c r="E54" t="s">
-        <v>53</v>
-      </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-      <c r="G54" t="s">
-        <v>31</v>
-      </c>
-      <c r="H54" t="s">
-        <v>41</v>
-      </c>
-      <c r="I54">
-        <v>26</v>
-      </c>
-      <c r="J54" t="s">
-        <v>52</v>
-      </c>
-      <c r="K54" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="A55" t="s">
-        <v>22</v>
-      </c>
-      <c r="B55">
-        <v>19.24315730942009</v>
-      </c>
-      <c r="C55">
-        <v>-71.12629476936569</v>
-      </c>
-      <c r="D55" t="s">
-        <v>27</v>
-      </c>
-      <c r="E55" t="s">
-        <v>53</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-      <c r="G55" t="s">
-        <v>32</v>
-      </c>
-      <c r="H55" t="s">
-        <v>42</v>
-      </c>
-      <c r="I55">
-        <v>35</v>
-      </c>
-      <c r="J55" t="s">
-        <v>52</v>
-      </c>
-      <c r="K55" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="A56" t="s">
-        <v>22</v>
-      </c>
-      <c r="B56">
-        <v>19.24315730942009</v>
-      </c>
-      <c r="C56">
-        <v>-71.12629476936569</v>
-      </c>
-      <c r="D56" t="s">
-        <v>27</v>
-      </c>
-      <c r="E56" t="s">
-        <v>53</v>
-      </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-      <c r="G56" t="s">
-        <v>33</v>
-      </c>
-      <c r="H56" t="s">
-        <v>43</v>
-      </c>
-      <c r="I56">
-        <v>1000</v>
-      </c>
-      <c r="J56" t="s">
-        <v>52</v>
-      </c>
-      <c r="K56" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" t="s">
-        <v>22</v>
-      </c>
-      <c r="B57">
-        <v>19.24315730942009</v>
-      </c>
-      <c r="C57">
-        <v>-71.12629476936569</v>
-      </c>
-      <c r="D57" t="s">
-        <v>27</v>
-      </c>
-      <c r="E57" t="s">
-        <v>53</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-      <c r="G57" t="s">
-        <v>34</v>
-      </c>
-      <c r="H57" t="s">
-        <v>44</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57" t="s">
-        <v>52</v>
-      </c>
-      <c r="K57" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58" t="s">
-        <v>22</v>
-      </c>
-      <c r="B58">
-        <v>19.24315730942009</v>
-      </c>
-      <c r="C58">
-        <v>-71.12629476936569</v>
-      </c>
-      <c r="D58" t="s">
-        <v>27</v>
-      </c>
-      <c r="E58" t="s">
-        <v>53</v>
-      </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
-      <c r="G58" t="s">
-        <v>35</v>
-      </c>
-      <c r="H58" t="s">
-        <v>45</v>
-      </c>
-      <c r="I58">
-        <v>22</v>
-      </c>
-      <c r="J58" t="s">
-        <v>52</v>
-      </c>
-      <c r="K58" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59" t="s">
-        <v>22</v>
-      </c>
-      <c r="B59">
-        <v>19.24315730942009</v>
-      </c>
-      <c r="C59">
-        <v>-71.12629476936569</v>
-      </c>
-      <c r="D59" t="s">
-        <v>27</v>
-      </c>
-      <c r="E59" t="s">
-        <v>53</v>
-      </c>
-      <c r="F59">
-        <v>1</v>
-      </c>
-      <c r="G59" t="s">
-        <v>36</v>
-      </c>
-      <c r="H59" t="s">
-        <v>46</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59" t="s">
-        <v>52</v>
-      </c>
-      <c r="K59" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" t="s">
-        <v>22</v>
-      </c>
-      <c r="B60">
-        <v>19.24315730942009</v>
-      </c>
-      <c r="C60">
-        <v>-71.12629476936569</v>
-      </c>
-      <c r="D60" t="s">
-        <v>27</v>
-      </c>
-      <c r="E60" t="s">
-        <v>53</v>
-      </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-      <c r="G60" t="s">
-        <v>37</v>
-      </c>
-      <c r="H60" t="s">
-        <v>47</v>
-      </c>
-      <c r="I60">
-        <v>6</v>
-      </c>
-      <c r="J60" t="s">
-        <v>52</v>
-      </c>
-      <c r="K60" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61" t="s">
-        <v>22</v>
-      </c>
-      <c r="B61">
-        <v>19.24315730942009</v>
-      </c>
-      <c r="C61">
-        <v>-71.12629476936569</v>
-      </c>
-      <c r="D61" t="s">
-        <v>27</v>
-      </c>
-      <c r="E61" t="s">
-        <v>53</v>
-      </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
-      <c r="G61" t="s">
-        <v>38</v>
-      </c>
-      <c r="H61" t="s">
-        <v>48</v>
-      </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
-      <c r="J61" t="s">
-        <v>52</v>
-      </c>
-      <c r="K61" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="A62" t="s">
-        <v>23</v>
-      </c>
-      <c r="B62">
-        <v>19.28312330531454</v>
-      </c>
-      <c r="C62">
-        <v>-71.66139950491532</v>
-      </c>
-      <c r="D62" t="s">
-        <v>27</v>
-      </c>
-      <c r="E62" t="s">
-        <v>53</v>
-      </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
-      <c r="G62" t="s">
-        <v>29</v>
-      </c>
-      <c r="H62" t="s">
-        <v>39</v>
-      </c>
-      <c r="I62">
-        <v>25</v>
-      </c>
-      <c r="J62" t="s">
-        <v>52</v>
-      </c>
-      <c r="K62" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="A63" t="s">
-        <v>23</v>
-      </c>
-      <c r="B63">
-        <v>19.28312330531454</v>
-      </c>
-      <c r="C63">
-        <v>-71.66139950491532</v>
-      </c>
-      <c r="D63" t="s">
-        <v>27</v>
-      </c>
-      <c r="E63" t="s">
-        <v>53</v>
-      </c>
-      <c r="F63">
-        <v>1</v>
-      </c>
-      <c r="G63" t="s">
-        <v>30</v>
-      </c>
-      <c r="H63" t="s">
-        <v>40</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63" t="s">
-        <v>52</v>
-      </c>
-      <c r="K63" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="A64" t="s">
-        <v>23</v>
-      </c>
-      <c r="B64">
-        <v>19.28312330531454</v>
-      </c>
-      <c r="C64">
-        <v>-71.66139950491532</v>
-      </c>
-      <c r="D64" t="s">
-        <v>27</v>
-      </c>
-      <c r="E64" t="s">
-        <v>53</v>
-      </c>
-      <c r="F64">
-        <v>1</v>
-      </c>
-      <c r="G64" t="s">
-        <v>31</v>
-      </c>
-      <c r="H64" t="s">
-        <v>41</v>
-      </c>
-      <c r="I64">
-        <v>56</v>
-      </c>
-      <c r="J64" t="s">
-        <v>52</v>
-      </c>
-      <c r="K64" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="A65" t="s">
-        <v>23</v>
-      </c>
-      <c r="B65">
-        <v>19.28312330531454</v>
-      </c>
-      <c r="C65">
-        <v>-71.66139950491532</v>
-      </c>
-      <c r="D65" t="s">
-        <v>27</v>
-      </c>
-      <c r="E65" t="s">
-        <v>53</v>
-      </c>
-      <c r="F65">
-        <v>1</v>
-      </c>
-      <c r="G65" t="s">
-        <v>32</v>
-      </c>
-      <c r="H65" t="s">
-        <v>42</v>
-      </c>
-      <c r="I65">
-        <v>35</v>
-      </c>
-      <c r="J65" t="s">
-        <v>52</v>
-      </c>
-      <c r="K65" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
-      <c r="A66" t="s">
-        <v>23</v>
-      </c>
-      <c r="B66">
-        <v>19.28312330531454</v>
-      </c>
-      <c r="C66">
-        <v>-71.66139950491532</v>
-      </c>
-      <c r="D66" t="s">
-        <v>27</v>
-      </c>
-      <c r="E66" t="s">
-        <v>53</v>
-      </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-      <c r="G66" t="s">
-        <v>33</v>
-      </c>
-      <c r="H66" t="s">
-        <v>43</v>
-      </c>
-      <c r="I66">
-        <v>1000</v>
-      </c>
-      <c r="J66" t="s">
-        <v>52</v>
-      </c>
-      <c r="K66" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67" t="s">
-        <v>23</v>
-      </c>
-      <c r="B67">
-        <v>19.28312330531454</v>
-      </c>
-      <c r="C67">
-        <v>-71.66139950491532</v>
-      </c>
-      <c r="D67" t="s">
-        <v>27</v>
-      </c>
-      <c r="E67" t="s">
-        <v>53</v>
-      </c>
-      <c r="F67">
-        <v>1</v>
-      </c>
-      <c r="G67" t="s">
-        <v>34</v>
-      </c>
-      <c r="H67" t="s">
-        <v>44</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67" t="s">
-        <v>52</v>
-      </c>
-      <c r="K67" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
-      <c r="A68" t="s">
-        <v>23</v>
-      </c>
-      <c r="B68">
-        <v>19.28312330531454</v>
-      </c>
-      <c r="C68">
-        <v>-71.66139950491532</v>
-      </c>
-      <c r="D68" t="s">
-        <v>27</v>
-      </c>
-      <c r="E68" t="s">
-        <v>53</v>
-      </c>
-      <c r="F68">
-        <v>1</v>
-      </c>
-      <c r="G68" t="s">
-        <v>35</v>
-      </c>
-      <c r="H68" t="s">
-        <v>45</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68" t="s">
-        <v>52</v>
-      </c>
-      <c r="K68" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
-      <c r="A69" t="s">
-        <v>23</v>
-      </c>
-      <c r="B69">
-        <v>19.28312330531454</v>
-      </c>
-      <c r="C69">
-        <v>-71.66139950491532</v>
-      </c>
-      <c r="D69" t="s">
-        <v>27</v>
-      </c>
-      <c r="E69" t="s">
-        <v>53</v>
-      </c>
-      <c r="F69">
-        <v>1</v>
-      </c>
-      <c r="G69" t="s">
-        <v>36</v>
-      </c>
-      <c r="H69" t="s">
-        <v>46</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69" t="s">
-        <v>52</v>
-      </c>
-      <c r="K69" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
-      <c r="A70" t="s">
-        <v>23</v>
-      </c>
-      <c r="B70">
-        <v>19.28312330531454</v>
-      </c>
-      <c r="C70">
-        <v>-71.66139950491532</v>
-      </c>
-      <c r="D70" t="s">
-        <v>27</v>
-      </c>
-      <c r="E70" t="s">
-        <v>53</v>
-      </c>
-      <c r="F70">
-        <v>1</v>
-      </c>
-      <c r="G70" t="s">
-        <v>37</v>
-      </c>
-      <c r="H70" t="s">
-        <v>47</v>
-      </c>
-      <c r="I70">
-        <v>17</v>
-      </c>
-      <c r="J70" t="s">
-        <v>52</v>
-      </c>
-      <c r="K70" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
-      <c r="A71" t="s">
-        <v>23</v>
-      </c>
-      <c r="B71">
-        <v>19.28312330531454</v>
-      </c>
-      <c r="C71">
-        <v>-71.66139950491532</v>
-      </c>
-      <c r="D71" t="s">
-        <v>27</v>
-      </c>
-      <c r="E71" t="s">
-        <v>53</v>
-      </c>
-      <c r="F71">
-        <v>1</v>
-      </c>
-      <c r="G71" t="s">
-        <v>38</v>
-      </c>
-      <c r="H71" t="s">
-        <v>48</v>
-      </c>
-      <c r="I71">
-        <v>11</v>
-      </c>
-      <c r="J71" t="s">
-        <v>52</v>
-      </c>
-      <c r="K71" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
-      <c r="A72" t="s">
-        <v>24</v>
-      </c>
-      <c r="B72">
-        <v>19.32052809868321</v>
-      </c>
-      <c r="C72">
-        <v>-71.29562145681435</v>
-      </c>
-      <c r="D72" t="s">
-        <v>27</v>
-      </c>
-      <c r="E72" t="s">
-        <v>53</v>
-      </c>
-      <c r="F72">
-        <v>1</v>
-      </c>
-      <c r="G72" t="s">
-        <v>29</v>
-      </c>
-      <c r="H72" t="s">
-        <v>39</v>
-      </c>
-      <c r="I72">
-        <v>5</v>
-      </c>
-      <c r="J72" t="s">
-        <v>52</v>
-      </c>
-      <c r="K72" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
-      <c r="A73" t="s">
-        <v>24</v>
-      </c>
-      <c r="B73">
-        <v>19.32052809868321</v>
-      </c>
-      <c r="C73">
-        <v>-71.29562145681435</v>
-      </c>
-      <c r="D73" t="s">
-        <v>27</v>
-      </c>
-      <c r="E73" t="s">
-        <v>53</v>
-      </c>
-      <c r="F73">
-        <v>1</v>
-      </c>
-      <c r="G73" t="s">
-        <v>30</v>
-      </c>
-      <c r="H73" t="s">
-        <v>40</v>
-      </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73" t="s">
-        <v>52</v>
-      </c>
-      <c r="K73" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
-      <c r="A74" t="s">
-        <v>24</v>
-      </c>
-      <c r="B74">
-        <v>19.32052809868321</v>
-      </c>
-      <c r="C74">
-        <v>-71.29562145681435</v>
-      </c>
-      <c r="D74" t="s">
-        <v>27</v>
-      </c>
-      <c r="E74" t="s">
-        <v>53</v>
-      </c>
-      <c r="F74">
-        <v>1</v>
-      </c>
-      <c r="G74" t="s">
-        <v>31</v>
-      </c>
-      <c r="H74" t="s">
-        <v>41</v>
-      </c>
-      <c r="I74">
-        <v>13</v>
-      </c>
-      <c r="J74" t="s">
-        <v>52</v>
-      </c>
-      <c r="K74" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
-      <c r="A75" t="s">
-        <v>24</v>
-      </c>
-      <c r="B75">
-        <v>19.32052809868321</v>
-      </c>
-      <c r="C75">
-        <v>-71.29562145681435</v>
-      </c>
-      <c r="D75" t="s">
-        <v>27</v>
-      </c>
-      <c r="E75" t="s">
-        <v>53</v>
-      </c>
-      <c r="F75">
-        <v>1</v>
-      </c>
-      <c r="G75" t="s">
-        <v>32</v>
-      </c>
-      <c r="H75" t="s">
-        <v>42</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="J75" t="s">
-        <v>52</v>
-      </c>
-      <c r="K75" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
-      <c r="A76" t="s">
-        <v>24</v>
-      </c>
-      <c r="B76">
-        <v>19.32052809868321</v>
-      </c>
-      <c r="C76">
-        <v>-71.29562145681435</v>
-      </c>
-      <c r="D76" t="s">
-        <v>27</v>
-      </c>
-      <c r="E76" t="s">
-        <v>53</v>
-      </c>
-      <c r="F76">
-        <v>1</v>
-      </c>
-      <c r="G76" t="s">
-        <v>33</v>
-      </c>
-      <c r="H76" t="s">
-        <v>43</v>
-      </c>
-      <c r="I76">
-        <v>1000</v>
-      </c>
-      <c r="J76" t="s">
-        <v>52</v>
-      </c>
-      <c r="K76" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
-      <c r="A77" t="s">
-        <v>24</v>
-      </c>
-      <c r="B77">
-        <v>19.32052809868321</v>
-      </c>
-      <c r="C77">
-        <v>-71.29562145681435</v>
-      </c>
-      <c r="D77" t="s">
-        <v>27</v>
-      </c>
-      <c r="E77" t="s">
-        <v>53</v>
-      </c>
-      <c r="F77">
-        <v>1</v>
-      </c>
-      <c r="G77" t="s">
-        <v>34</v>
-      </c>
-      <c r="H77" t="s">
-        <v>44</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="J77" t="s">
-        <v>52</v>
-      </c>
-      <c r="K77" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
-      <c r="A78" t="s">
-        <v>24</v>
-      </c>
-      <c r="B78">
-        <v>19.32052809868321</v>
-      </c>
-      <c r="C78">
-        <v>-71.29562145681435</v>
-      </c>
-      <c r="D78" t="s">
-        <v>27</v>
-      </c>
-      <c r="E78" t="s">
-        <v>53</v>
-      </c>
-      <c r="F78">
-        <v>1</v>
-      </c>
-      <c r="G78" t="s">
-        <v>35</v>
-      </c>
-      <c r="H78" t="s">
-        <v>45</v>
-      </c>
-      <c r="I78">
-        <v>31</v>
-      </c>
-      <c r="J78" t="s">
-        <v>52</v>
-      </c>
-      <c r="K78" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
-      <c r="A79" t="s">
-        <v>24</v>
-      </c>
-      <c r="B79">
-        <v>19.32052809868321</v>
-      </c>
-      <c r="C79">
-        <v>-71.29562145681435</v>
-      </c>
-      <c r="D79" t="s">
-        <v>27</v>
-      </c>
-      <c r="E79" t="s">
-        <v>53</v>
-      </c>
-      <c r="F79">
-        <v>1</v>
-      </c>
-      <c r="G79" t="s">
-        <v>36</v>
-      </c>
-      <c r="H79" t="s">
-        <v>46</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-      <c r="J79" t="s">
-        <v>52</v>
-      </c>
-      <c r="K79" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
-      <c r="A80" t="s">
-        <v>24</v>
-      </c>
-      <c r="B80">
-        <v>19.32052809868321</v>
-      </c>
-      <c r="C80">
-        <v>-71.29562145681435</v>
-      </c>
-      <c r="D80" t="s">
-        <v>27</v>
-      </c>
-      <c r="E80" t="s">
-        <v>53</v>
-      </c>
-      <c r="F80">
-        <v>1</v>
-      </c>
-      <c r="G80" t="s">
-        <v>37</v>
-      </c>
-      <c r="H80" t="s">
-        <v>47</v>
-      </c>
-      <c r="I80">
-        <v>73</v>
-      </c>
-      <c r="J80" t="s">
-        <v>52</v>
-      </c>
-      <c r="K80" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
-      <c r="A81" t="s">
-        <v>24</v>
-      </c>
-      <c r="B81">
-        <v>19.32052809868321</v>
-      </c>
-      <c r="C81">
-        <v>-71.29562145681435</v>
-      </c>
-      <c r="D81" t="s">
-        <v>27</v>
-      </c>
-      <c r="E81" t="s">
-        <v>53</v>
-      </c>
-      <c r="F81">
-        <v>1</v>
-      </c>
-      <c r="G81" t="s">
-        <v>38</v>
-      </c>
-      <c r="H81" t="s">
-        <v>48</v>
-      </c>
-      <c r="I81">
-        <v>22</v>
-      </c>
-      <c r="J81" t="s">
-        <v>52</v>
-      </c>
-      <c r="K81" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
-      <c r="A82" t="s">
-        <v>25</v>
-      </c>
-      <c r="B82">
-        <v>19.34253787450185</v>
-      </c>
-      <c r="C82">
-        <v>-71.735269016535</v>
-      </c>
-      <c r="D82" t="s">
-        <v>27</v>
-      </c>
-      <c r="E82" t="s">
-        <v>53</v>
-      </c>
-      <c r="F82">
-        <v>1</v>
-      </c>
-      <c r="G82" t="s">
-        <v>29</v>
-      </c>
-      <c r="H82" t="s">
-        <v>39</v>
-      </c>
-      <c r="I82">
-        <v>21</v>
-      </c>
-      <c r="J82" t="s">
-        <v>52</v>
-      </c>
-      <c r="K82" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
-      <c r="A83" t="s">
-        <v>25</v>
-      </c>
-      <c r="B83">
-        <v>19.34253787450185</v>
-      </c>
-      <c r="C83">
-        <v>-71.735269016535</v>
-      </c>
-      <c r="D83" t="s">
-        <v>27</v>
-      </c>
-      <c r="E83" t="s">
-        <v>53</v>
-      </c>
-      <c r="F83">
-        <v>1</v>
-      </c>
-      <c r="G83" t="s">
-        <v>30</v>
-      </c>
-      <c r="H83" t="s">
-        <v>40</v>
-      </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-      <c r="J83" t="s">
-        <v>52</v>
-      </c>
-      <c r="K83" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
-      <c r="A84" t="s">
-        <v>25</v>
-      </c>
-      <c r="B84">
-        <v>19.34253787450185</v>
-      </c>
-      <c r="C84">
-        <v>-71.735269016535</v>
-      </c>
-      <c r="D84" t="s">
-        <v>27</v>
-      </c>
-      <c r="E84" t="s">
-        <v>53</v>
-      </c>
-      <c r="F84">
-        <v>1</v>
-      </c>
-      <c r="G84" t="s">
-        <v>31</v>
-      </c>
-      <c r="H84" t="s">
-        <v>41</v>
-      </c>
-      <c r="I84">
-        <v>7</v>
-      </c>
-      <c r="J84" t="s">
-        <v>52</v>
-      </c>
-      <c r="K84" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
-      <c r="A85" t="s">
-        <v>25</v>
-      </c>
-      <c r="B85">
-        <v>19.34253787450185</v>
-      </c>
-      <c r="C85">
-        <v>-71.735269016535</v>
-      </c>
-      <c r="D85" t="s">
-        <v>27</v>
-      </c>
-      <c r="E85" t="s">
-        <v>53</v>
-      </c>
-      <c r="F85">
-        <v>1</v>
-      </c>
-      <c r="G85" t="s">
-        <v>32</v>
-      </c>
-      <c r="H85" t="s">
-        <v>42</v>
-      </c>
-      <c r="I85">
-        <v>30</v>
-      </c>
-      <c r="J85" t="s">
-        <v>52</v>
-      </c>
-      <c r="K85" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
-      <c r="A86" t="s">
-        <v>25</v>
-      </c>
-      <c r="B86">
-        <v>19.34253787450185</v>
-      </c>
-      <c r="C86">
-        <v>-71.735269016535</v>
-      </c>
-      <c r="D86" t="s">
-        <v>27</v>
-      </c>
-      <c r="E86" t="s">
-        <v>53</v>
-      </c>
-      <c r="F86">
-        <v>1</v>
-      </c>
-      <c r="G86" t="s">
-        <v>33</v>
-      </c>
-      <c r="H86" t="s">
-        <v>43</v>
-      </c>
-      <c r="I86">
-        <v>1000</v>
-      </c>
-      <c r="J86" t="s">
-        <v>52</v>
-      </c>
-      <c r="K86" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
-      <c r="A87" t="s">
-        <v>25</v>
-      </c>
-      <c r="B87">
-        <v>19.34253787450185</v>
-      </c>
-      <c r="C87">
-        <v>-71.735269016535</v>
-      </c>
-      <c r="D87" t="s">
-        <v>27</v>
-      </c>
-      <c r="E87" t="s">
-        <v>53</v>
-      </c>
-      <c r="F87">
-        <v>1</v>
-      </c>
-      <c r="G87" t="s">
-        <v>34</v>
-      </c>
-      <c r="H87" t="s">
-        <v>44</v>
-      </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
-      <c r="J87" t="s">
-        <v>52</v>
-      </c>
-      <c r="K87" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
-      <c r="A88" t="s">
-        <v>25</v>
-      </c>
-      <c r="B88">
-        <v>19.34253787450185</v>
-      </c>
-      <c r="C88">
-        <v>-71.735269016535</v>
-      </c>
-      <c r="D88" t="s">
-        <v>27</v>
-      </c>
-      <c r="E88" t="s">
-        <v>53</v>
-      </c>
-      <c r="F88">
-        <v>1</v>
-      </c>
-      <c r="G88" t="s">
-        <v>35</v>
-      </c>
-      <c r="H88" t="s">
-        <v>45</v>
-      </c>
-      <c r="I88">
-        <v>19</v>
-      </c>
-      <c r="J88" t="s">
-        <v>52</v>
-      </c>
-      <c r="K88" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
-      <c r="A89" t="s">
-        <v>25</v>
-      </c>
-      <c r="B89">
-        <v>19.34253787450185</v>
-      </c>
-      <c r="C89">
-        <v>-71.735269016535</v>
-      </c>
-      <c r="D89" t="s">
-        <v>27</v>
-      </c>
-      <c r="E89" t="s">
-        <v>53</v>
-      </c>
-      <c r="F89">
-        <v>1</v>
-      </c>
-      <c r="G89" t="s">
-        <v>36</v>
-      </c>
-      <c r="H89" t="s">
-        <v>46</v>
-      </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
-      <c r="J89" t="s">
-        <v>52</v>
-      </c>
-      <c r="K89" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
-      <c r="A90" t="s">
-        <v>25</v>
-      </c>
-      <c r="B90">
-        <v>19.34253787450185</v>
-      </c>
-      <c r="C90">
-        <v>-71.735269016535</v>
-      </c>
-      <c r="D90" t="s">
-        <v>27</v>
-      </c>
-      <c r="E90" t="s">
-        <v>53</v>
-      </c>
-      <c r="F90">
-        <v>1</v>
-      </c>
-      <c r="G90" t="s">
-        <v>37</v>
-      </c>
-      <c r="H90" t="s">
-        <v>47</v>
-      </c>
-      <c r="I90">
-        <v>60</v>
-      </c>
-      <c r="J90" t="s">
-        <v>52</v>
-      </c>
-      <c r="K90" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
-      <c r="A91" t="s">
-        <v>25</v>
-      </c>
-      <c r="B91">
-        <v>19.34253787450185</v>
-      </c>
-      <c r="C91">
-        <v>-71.735269016535</v>
-      </c>
-      <c r="D91" t="s">
-        <v>27</v>
-      </c>
-      <c r="E91" t="s">
-        <v>53</v>
-      </c>
-      <c r="F91">
-        <v>1</v>
-      </c>
-      <c r="G91" t="s">
-        <v>38</v>
-      </c>
-      <c r="H91" t="s">
-        <v>48</v>
-      </c>
-      <c r="I91">
-        <v>6</v>
-      </c>
-      <c r="J91" t="s">
-        <v>52</v>
-      </c>
-      <c r="K91" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
-      <c r="A92" t="s">
-        <v>26</v>
-      </c>
-      <c r="B92">
-        <v>19.36313591431194</v>
-      </c>
-      <c r="C92">
-        <v>-71.72966629294646</v>
-      </c>
-      <c r="D92" t="s">
-        <v>27</v>
-      </c>
-      <c r="E92" t="s">
-        <v>53</v>
-      </c>
-      <c r="F92">
-        <v>1</v>
-      </c>
-      <c r="G92" t="s">
-        <v>29</v>
-      </c>
-      <c r="H92" t="s">
-        <v>39</v>
-      </c>
-      <c r="I92">
-        <v>31</v>
-      </c>
-      <c r="J92" t="s">
-        <v>52</v>
-      </c>
-      <c r="K92" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
-      <c r="A93" t="s">
-        <v>26</v>
-      </c>
-      <c r="B93">
-        <v>19.36313591431194</v>
-      </c>
-      <c r="C93">
-        <v>-71.72966629294646</v>
-      </c>
-      <c r="D93" t="s">
-        <v>27</v>
-      </c>
-      <c r="E93" t="s">
-        <v>53</v>
-      </c>
-      <c r="F93">
-        <v>1</v>
-      </c>
-      <c r="G93" t="s">
-        <v>30</v>
-      </c>
-      <c r="H93" t="s">
-        <v>40</v>
-      </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
-      <c r="J93" t="s">
-        <v>52</v>
-      </c>
-      <c r="K93" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11">
-      <c r="A94" t="s">
-        <v>26</v>
-      </c>
-      <c r="B94">
-        <v>19.36313591431194</v>
-      </c>
-      <c r="C94">
-        <v>-71.72966629294646</v>
-      </c>
-      <c r="D94" t="s">
-        <v>27</v>
-      </c>
-      <c r="E94" t="s">
-        <v>53</v>
-      </c>
-      <c r="F94">
-        <v>1</v>
-      </c>
-      <c r="G94" t="s">
-        <v>31</v>
-      </c>
-      <c r="H94" t="s">
-        <v>41</v>
-      </c>
-      <c r="I94">
-        <v>17</v>
-      </c>
-      <c r="J94" t="s">
-        <v>52</v>
-      </c>
-      <c r="K94" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
-      <c r="A95" t="s">
-        <v>26</v>
-      </c>
-      <c r="B95">
-        <v>19.36313591431194</v>
-      </c>
-      <c r="C95">
-        <v>-71.72966629294646</v>
-      </c>
-      <c r="D95" t="s">
-        <v>27</v>
-      </c>
-      <c r="E95" t="s">
-        <v>53</v>
-      </c>
-      <c r="F95">
-        <v>1</v>
-      </c>
-      <c r="G95" t="s">
-        <v>32</v>
-      </c>
-      <c r="H95" t="s">
-        <v>42</v>
-      </c>
-      <c r="I95">
-        <v>37</v>
-      </c>
-      <c r="J95" t="s">
-        <v>52</v>
-      </c>
-      <c r="K95" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11">
-      <c r="A96" t="s">
-        <v>26</v>
-      </c>
-      <c r="B96">
-        <v>19.36313591431194</v>
-      </c>
-      <c r="C96">
-        <v>-71.72966629294646</v>
-      </c>
-      <c r="D96" t="s">
-        <v>27</v>
-      </c>
-      <c r="E96" t="s">
-        <v>53</v>
-      </c>
-      <c r="F96">
-        <v>1</v>
-      </c>
-      <c r="G96" t="s">
-        <v>33</v>
-      </c>
-      <c r="H96" t="s">
-        <v>43</v>
-      </c>
-      <c r="I96">
-        <v>1000</v>
-      </c>
-      <c r="J96" t="s">
-        <v>52</v>
-      </c>
-      <c r="K96" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
-      <c r="A97" t="s">
-        <v>26</v>
-      </c>
-      <c r="B97">
-        <v>19.36313591431194</v>
-      </c>
-      <c r="C97">
-        <v>-71.72966629294646</v>
-      </c>
-      <c r="D97" t="s">
-        <v>27</v>
-      </c>
-      <c r="E97" t="s">
-        <v>53</v>
-      </c>
-      <c r="F97">
-        <v>1</v>
-      </c>
-      <c r="G97" t="s">
-        <v>34</v>
-      </c>
-      <c r="H97" t="s">
-        <v>44</v>
-      </c>
-      <c r="I97">
-        <v>0</v>
-      </c>
-      <c r="J97" t="s">
-        <v>52</v>
-      </c>
-      <c r="K97" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11">
-      <c r="A98" t="s">
-        <v>26</v>
-      </c>
-      <c r="B98">
-        <v>19.36313591431194</v>
-      </c>
-      <c r="C98">
-        <v>-71.72966629294646</v>
-      </c>
-      <c r="D98" t="s">
-        <v>27</v>
-      </c>
-      <c r="E98" t="s">
-        <v>53</v>
-      </c>
-      <c r="F98">
-        <v>1</v>
-      </c>
-      <c r="G98" t="s">
-        <v>35</v>
-      </c>
-      <c r="H98" t="s">
-        <v>45</v>
-      </c>
-      <c r="I98">
-        <v>24</v>
-      </c>
-      <c r="J98" t="s">
-        <v>52</v>
-      </c>
-      <c r="K98" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
-      <c r="A99" t="s">
-        <v>26</v>
-      </c>
-      <c r="B99">
-        <v>19.36313591431194</v>
-      </c>
-      <c r="C99">
-        <v>-71.72966629294646</v>
-      </c>
-      <c r="D99" t="s">
-        <v>27</v>
-      </c>
-      <c r="E99" t="s">
-        <v>53</v>
-      </c>
-      <c r="F99">
-        <v>1</v>
-      </c>
-      <c r="G99" t="s">
-        <v>36</v>
-      </c>
-      <c r="H99" t="s">
-        <v>46</v>
-      </c>
-      <c r="I99">
-        <v>0</v>
-      </c>
-      <c r="J99" t="s">
-        <v>52</v>
-      </c>
-      <c r="K99" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11">
-      <c r="A100" t="s">
-        <v>26</v>
-      </c>
-      <c r="B100">
-        <v>19.36313591431194</v>
-      </c>
-      <c r="C100">
-        <v>-71.72966629294646</v>
-      </c>
-      <c r="D100" t="s">
-        <v>27</v>
-      </c>
-      <c r="E100" t="s">
-        <v>53</v>
-      </c>
-      <c r="F100">
-        <v>1</v>
-      </c>
-      <c r="G100" t="s">
-        <v>37</v>
-      </c>
-      <c r="H100" t="s">
-        <v>47</v>
-      </c>
-      <c r="I100">
-        <v>5</v>
-      </c>
-      <c r="J100" t="s">
-        <v>52</v>
-      </c>
-      <c r="K100" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11">
-      <c r="A101" t="s">
-        <v>26</v>
-      </c>
-      <c r="B101">
-        <v>19.36313591431194</v>
-      </c>
-      <c r="C101">
-        <v>-71.72966629294646</v>
-      </c>
-      <c r="D101" t="s">
-        <v>27</v>
-      </c>
-      <c r="E101" t="s">
-        <v>53</v>
-      </c>
-      <c r="F101">
-        <v>1</v>
-      </c>
-      <c r="G101" t="s">
-        <v>38</v>
-      </c>
-      <c r="H101" t="s">
-        <v>48</v>
-      </c>
-      <c r="I101">
-        <v>30</v>
-      </c>
-      <c r="J101" t="s">
-        <v>52</v>
-      </c>
-      <c r="K101" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -30253,7 +26701,7 @@
         <v>43</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J6" t="s">
         <v>50</v>
@@ -30285,7 +26733,7 @@
         <v>44</v>
       </c>
       <c r="I7">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
         <v>50</v>
@@ -30573,7 +27021,7 @@
         <v>43</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J16" t="s">
         <v>50</v>
@@ -30605,7 +27053,7 @@
         <v>44</v>
       </c>
       <c r="I17">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
         <v>50</v>
@@ -30893,7 +27341,7 @@
         <v>43</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J26" t="s">
         <v>50</v>
@@ -30925,7 +27373,7 @@
         <v>44</v>
       </c>
       <c r="I27">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
         <v>50</v>
@@ -31213,7 +27661,7 @@
         <v>43</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J36" t="s">
         <v>50</v>
@@ -31245,7 +27693,7 @@
         <v>44</v>
       </c>
       <c r="I37">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
         <v>50</v>
@@ -31533,7 +27981,7 @@
         <v>43</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J46" t="s">
         <v>50</v>
@@ -31565,7 +28013,7 @@
         <v>44</v>
       </c>
       <c r="I47">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="J47" t="s">
         <v>50</v>
@@ -31853,7 +28301,7 @@
         <v>43</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J56" t="s">
         <v>50</v>
@@ -31885,7 +28333,7 @@
         <v>44</v>
       </c>
       <c r="I57">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
         <v>50</v>
@@ -32173,7 +28621,7 @@
         <v>43</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J66" t="s">
         <v>50</v>
@@ -32205,7 +28653,7 @@
         <v>44</v>
       </c>
       <c r="I67">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
         <v>50</v>
@@ -32493,7 +28941,7 @@
         <v>43</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J76" t="s">
         <v>50</v>
@@ -32525,7 +28973,7 @@
         <v>44</v>
       </c>
       <c r="I77">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="J77" t="s">
         <v>50</v>
@@ -32813,7 +29261,7 @@
         <v>43</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J86" t="s">
         <v>50</v>
@@ -32845,7 +29293,7 @@
         <v>44</v>
       </c>
       <c r="I87">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
         <v>50</v>
@@ -33133,7 +29581,7 @@
         <v>43</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J96" t="s">
         <v>50</v>
@@ -33165,7 +29613,7 @@
         <v>44</v>
       </c>
       <c r="I97">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="J97" t="s">
         <v>50</v>
